--- a/WT Survey Data/Education.xlsx
+++ b/WT Survey Data/Education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19e334791adf9b8f/Documents/GitHub/spring-2018-final-projects-bretbryan-wt/WT Survey Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bryan/Dropbox/GitHub/spring-2018-final-projects-bretbryan-wt/WT Survey Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{D251EAC4-0533-4415-91E9-45878EA2E111}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{4F97A94B-300F-41E8-A116-BB79AD0AD4F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58D4116-E59D-D047-A722-52D40916B12A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{ED27AB8C-0DBF-435F-8D7F-30095E19E2F6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24660" windowHeight="15540" xr2:uid="{ED27AB8C-0DBF-435F-8D7F-30095E19E2F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="26">
   <si>
     <t>Conference</t>
   </si>
@@ -95,6 +95,15 @@
   <si>
     <t>Strongly Agree</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -109,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -129,13 +144,247 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -445,15 +694,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34821B11-9B78-4727-95C7-20FCAA4A976A}">
-  <dimension ref="A1:Q140"/>
+  <dimension ref="A1:T148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="L137" sqref="L137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,31 +731,37 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -534,11 +789,15 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>COUNTA(D2:I2)</f>
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -566,14 +825,12 @@
       <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0">COUNTA(D3:I3)</f>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
@@ -588,10 +845,20 @@
         <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="1">COUNTA(N3:S3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -619,14 +886,12 @@
       <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
         <v>12</v>
@@ -641,10 +906,20 @@
         <v>12</v>
       </c>
       <c r="Q4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -672,20 +947,18 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
         <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O5" t="s">
         <v>12</v>
@@ -696,25 +969,33 @@
       <c r="Q5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>10</v>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O6" t="s">
         <v>12</v>
@@ -723,27 +1004,35 @@
         <v>12</v>
       </c>
       <c r="Q6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O7" t="s">
         <v>12</v>
@@ -752,10 +1041,20 @@
         <v>12</v>
       </c>
       <c r="Q7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -783,25 +1082,31 @@
       <c r="I8" t="s">
         <v>11</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N9" t="s">
         <v>10</v>
@@ -810,13 +1115,23 @@
         <v>12</v>
       </c>
       <c r="P9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -844,20 +1159,18 @@
       <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
       </c>
       <c r="N10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O10" t="s">
         <v>12</v>
@@ -866,10 +1179,20 @@
         <v>12</v>
       </c>
       <c r="Q10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -897,11 +1220,19 @@
       <c r="I11" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -929,32 +1260,40 @@
       <c r="I12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
         <v>22</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" t="s">
-        <v>10</v>
       </c>
       <c r="N12" t="s">
         <v>22</v>
       </c>
       <c r="O12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
         <v>22</v>
-      </c>
-      <c r="P12" t="s">
-        <v>10</v>
       </c>
       <c r="Q12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -982,11 +1321,19 @@
       <c r="I13" t="s">
         <v>11</v>
       </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1014,40 +1361,56 @@
       <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
         <v>22</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>22</v>
       </c>
-      <c r="M15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" t="s">
-        <v>12</v>
-      </c>
       <c r="O15" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" t="s">
         <v>22</v>
       </c>
-      <c r="Q15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1075,32 +1438,40 @@
       <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N16" t="s">
         <v>10</v>
       </c>
       <c r="O16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R16" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1128,11 +1499,19 @@
       <c r="I17" t="s">
         <v>11</v>
       </c>
-      <c r="J17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1160,32 +1539,40 @@
       <c r="I18" t="s">
         <v>11</v>
       </c>
-      <c r="J18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" t="s">
-        <v>12</v>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O18" t="s">
         <v>10</v>
       </c>
       <c r="P18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1210,32 +1597,40 @@
       <c r="I19" t="s">
         <v>10</v>
       </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" t="s">
-        <v>12</v>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="L19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M19" t="s">
         <v>12</v>
       </c>
       <c r="N19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O19" t="s">
         <v>12</v>
       </c>
       <c r="P19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R19" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1263,14 +1658,12 @@
       <c r="I20" t="s">
         <v>10</v>
       </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" t="s">
-        <v>10</v>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M20" t="s">
         <v>10</v>
@@ -1287,25 +1680,33 @@
       <c r="Q20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" t="s">
-        <v>10</v>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N21" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O21" t="s">
         <v>21</v>
@@ -1314,21 +1715,29 @@
         <v>21</v>
       </c>
       <c r="Q21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="R21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M22" t="s">
         <v>21</v>
@@ -1340,13 +1749,23 @@
         <v>21</v>
       </c>
       <c r="P22" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="R22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -1374,32 +1793,40 @@
       <c r="I23" t="s">
         <v>11</v>
       </c>
-      <c r="J23" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" t="s">
-        <v>12</v>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P23" t="s">
         <v>12</v>
       </c>
       <c r="Q23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R23" t="s">
+        <v>12</v>
+      </c>
+      <c r="S23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1427,32 +1854,40 @@
       <c r="I24" t="s">
         <v>11</v>
       </c>
-      <c r="J24" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" t="s">
-        <v>10</v>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N24" t="s">
         <v>10</v>
       </c>
       <c r="O24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="R24" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -1480,14 +1915,12 @@
       <c r="I25" t="s">
         <v>10</v>
       </c>
-      <c r="J25" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" t="s">
-        <v>10</v>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M25" t="s">
         <v>10</v>
@@ -1499,42 +1932,60 @@
         <v>10</v>
       </c>
       <c r="P25" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Q25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="R25" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" t="s">
+        <v>12</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
-      <c r="J26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" t="s">
-        <v>10</v>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" t="s">
         <v>22</v>
       </c>
-      <c r="M26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N26" t="s">
-        <v>12</v>
-      </c>
       <c r="O26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q26" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" t="s">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1562,32 +2013,40 @@
       <c r="I27" t="s">
         <v>10</v>
       </c>
-      <c r="J27" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" t="s">
-        <v>10</v>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O27" t="s">
         <v>12</v>
       </c>
       <c r="P27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R27" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1615,32 +2074,40 @@
       <c r="I28" t="s">
         <v>10</v>
       </c>
-      <c r="J28" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" t="s">
-        <v>12</v>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O28" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="P28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28" t="s">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1668,20 +2135,18 @@
       <c r="I29" t="s">
         <v>10</v>
       </c>
-      <c r="J29" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" t="s">
-        <v>10</v>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O29" t="s">
         <v>12</v>
@@ -1690,39 +2155,57 @@
         <v>12</v>
       </c>
       <c r="Q29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R29" t="s">
+        <v>12</v>
+      </c>
+      <c r="S29" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="J30" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" t="s">
-        <v>10</v>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N30" t="s">
         <v>10</v>
       </c>
       <c r="O30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q30" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" t="s">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1750,32 +2233,40 @@
       <c r="I31" t="s">
         <v>10</v>
       </c>
-      <c r="J31" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" t="s">
-        <v>10</v>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M31" t="s">
         <v>10</v>
       </c>
       <c r="N31" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O31" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P31" t="s">
         <v>21</v>
       </c>
       <c r="Q31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="R31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" t="s">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1803,20 +2294,18 @@
       <c r="I32" t="s">
         <v>10</v>
       </c>
-      <c r="J32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" t="s">
-        <v>21</v>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M32" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O32" t="s">
         <v>12</v>
@@ -1825,10 +2314,20 @@
         <v>12</v>
       </c>
       <c r="Q32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R32" t="s">
+        <v>12</v>
+      </c>
+      <c r="S32" t="s">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1856,49 +2355,55 @@
       <c r="I33" t="s">
         <v>10</v>
       </c>
-      <c r="J33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" t="s">
-        <v>10</v>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O33" t="s">
         <v>12</v>
       </c>
       <c r="P33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" t="s">
+        <v>12</v>
+      </c>
+      <c r="S33" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
-      <c r="J34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" t="s">
-        <v>21</v>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M34" t="s">
         <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O34" t="s">
         <v>21</v>
@@ -1909,8 +2414,18 @@
       <c r="Q34" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" t="s">
+        <v>21</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1938,23 +2453,21 @@
       <c r="I35" t="s">
         <v>10</v>
       </c>
-      <c r="J35" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" t="s">
-        <v>10</v>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M35" t="s">
         <v>10</v>
       </c>
       <c r="N35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P35" t="s">
         <v>12</v>
@@ -1962,8 +2475,18 @@
       <c r="Q35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1991,32 +2514,40 @@
       <c r="I36" t="s">
         <v>10</v>
       </c>
-      <c r="J36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" t="s">
-        <v>10</v>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" t="s">
+        <v>12</v>
+      </c>
+      <c r="S36" t="s">
+        <v>10</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2044,17 +2575,15 @@
       <c r="I37" t="s">
         <v>10</v>
       </c>
-      <c r="J37" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" t="s">
-        <v>10</v>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N37" t="s">
         <v>21</v>
@@ -2063,13 +2592,23 @@
         <v>21</v>
       </c>
       <c r="P37" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="R37" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" t="s">
+        <v>12</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2097,20 +2636,18 @@
       <c r="I38" t="s">
         <v>10</v>
       </c>
-      <c r="J38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" t="s">
-        <v>10</v>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M38" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N38" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O38" t="s">
         <v>21</v>
@@ -2121,66 +2658,92 @@
       <c r="Q38" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="J39" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" t="s">
-        <v>12</v>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M39" t="s">
         <v>12</v>
       </c>
       <c r="N39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O39" t="s">
         <v>12</v>
       </c>
       <c r="P39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q39" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" t="s">
+        <v>12</v>
+      </c>
+      <c r="S39" t="s">
+        <v>12</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="J40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" t="s">
-        <v>10</v>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M40" t="s">
         <v>10</v>
       </c>
       <c r="N40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P40" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R40" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" t="s">
+        <v>10</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2208,14 +2771,12 @@
       <c r="I41" t="s">
         <v>11</v>
       </c>
-      <c r="J41" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" t="s">
-        <v>12</v>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M41" t="s">
         <v>12</v>
@@ -2224,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="O41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P41" t="s">
         <v>12</v>
@@ -2232,8 +2793,18 @@
       <c r="Q41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -2261,32 +2832,40 @@
       <c r="I42" t="s">
         <v>12</v>
       </c>
-      <c r="J42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" t="s">
-        <v>10</v>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N42" t="s">
         <v>12</v>
       </c>
       <c r="O42" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P42" t="s">
         <v>12</v>
       </c>
       <c r="Q42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="R42" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" t="s">
+        <v>12</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -2314,43 +2893,49 @@
       <c r="I43" t="s">
         <v>10</v>
       </c>
-      <c r="J43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" t="s">
-        <v>10</v>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O43" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="R43" t="s">
+        <v>12</v>
+      </c>
+      <c r="S43" t="s">
+        <v>12</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1</v>
       </c>
-      <c r="J44" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" t="s">
-        <v>21</v>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M44" t="s">
         <v>21</v>
@@ -2367,8 +2952,18 @@
       <c r="Q44" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" t="s">
+        <v>21</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -2396,11 +2991,19 @@
       <c r="I45" t="s">
         <v>10</v>
       </c>
-      <c r="J45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L45" t="s">
+        <v>14</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -2428,11 +3031,19 @@
       <c r="I46" t="s">
         <v>12</v>
       </c>
-      <c r="J46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L46" t="s">
+        <v>14</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -2460,20 +3071,18 @@
       <c r="I47" t="s">
         <v>11</v>
       </c>
-      <c r="J47" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" t="s">
-        <v>10</v>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L47" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O47" t="s">
         <v>12</v>
@@ -2482,10 +3091,20 @@
         <v>12</v>
       </c>
       <c r="Q47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R47" t="s">
+        <v>12</v>
+      </c>
+      <c r="S47" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -2513,21 +3132,19 @@
       <c r="I48" t="s">
         <v>11</v>
       </c>
-      <c r="J48" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" t="s">
-        <v>12</v>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L48" t="s">
+        <v>14</v>
+      </c>
+      <c r="M48" t="s">
+        <v>12</v>
+      </c>
+      <c r="N48" t="s">
         <v>22</v>
       </c>
-      <c r="M48" t="s">
-        <v>12</v>
-      </c>
-      <c r="N48" t="s">
-        <v>12</v>
-      </c>
       <c r="O48" t="s">
         <v>12</v>
       </c>
@@ -2535,21 +3152,29 @@
         <v>12</v>
       </c>
       <c r="Q48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R48" t="s">
+        <v>12</v>
+      </c>
+      <c r="S48" t="s">
+        <v>10</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
-      <c r="J49" t="s">
-        <v>14</v>
-      </c>
-      <c r="K49" t="s">
-        <v>12</v>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M49" t="s">
         <v>12</v>
@@ -2564,10 +3189,20 @@
         <v>12</v>
       </c>
       <c r="Q49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R49" t="s">
+        <v>12</v>
+      </c>
+      <c r="S49" t="s">
+        <v>10</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -2595,32 +3230,40 @@
       <c r="I50" t="s">
         <v>11</v>
       </c>
-      <c r="J50" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" t="s">
-        <v>21</v>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L50" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M50" t="s">
         <v>21</v>
       </c>
       <c r="N50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O50" t="s">
         <v>21</v>
       </c>
       <c r="P50" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q50" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="R50" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" t="s">
+        <v>12</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -2648,32 +3291,40 @@
       <c r="I51" t="s">
         <v>10</v>
       </c>
-      <c r="J51" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" t="s">
-        <v>12</v>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L51" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M51" t="s">
         <v>12</v>
       </c>
       <c r="N51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O51" t="s">
         <v>12</v>
       </c>
       <c r="P51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q51" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51" t="s">
+        <v>10</v>
+      </c>
+      <c r="S51" t="s">
+        <v>12</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2701,32 +3352,40 @@
       <c r="I52" t="s">
         <v>11</v>
       </c>
-      <c r="J52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" t="s">
-        <v>21</v>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L52" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M52" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P52" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q52" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" t="s">
+        <v>12</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -2754,32 +3413,40 @@
       <c r="I53" t="s">
         <v>10</v>
       </c>
-      <c r="J53" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" t="s">
-        <v>10</v>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L53" t="s">
+        <v>14</v>
+      </c>
+      <c r="M53" t="s">
+        <v>10</v>
+      </c>
+      <c r="N53" t="s">
         <v>22</v>
       </c>
-      <c r="M53" t="s">
-        <v>10</v>
-      </c>
-      <c r="N53" t="s">
-        <v>10</v>
-      </c>
       <c r="O53" t="s">
         <v>10</v>
       </c>
       <c r="P53" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q53" t="s">
+        <v>10</v>
+      </c>
+      <c r="R53" t="s">
+        <v>12</v>
+      </c>
+      <c r="S53" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -2807,32 +3474,40 @@
       <c r="I54" t="s">
         <v>10</v>
       </c>
-      <c r="J54" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" t="s">
-        <v>12</v>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L54" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M54" t="s">
         <v>12</v>
       </c>
       <c r="N54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P54" t="s">
         <v>12</v>
       </c>
       <c r="Q54" t="s">
+        <v>10</v>
+      </c>
+      <c r="R54" t="s">
+        <v>12</v>
+      </c>
+      <c r="S54" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -2860,32 +3535,40 @@
       <c r="I55" t="s">
         <v>10</v>
       </c>
-      <c r="J55" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" t="s">
-        <v>21</v>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L55" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M55" t="s">
         <v>21</v>
       </c>
       <c r="N55" t="s">
+        <v>10</v>
+      </c>
+      <c r="O55" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" t="s">
         <v>22</v>
       </c>
-      <c r="O55" t="s">
-        <v>10</v>
-      </c>
-      <c r="P55" t="s">
-        <v>21</v>
-      </c>
       <c r="Q55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="R55" t="s">
+        <v>21</v>
+      </c>
+      <c r="S55" t="s">
+        <v>12</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -2913,14 +3596,12 @@
       <c r="I56" t="s">
         <v>11</v>
       </c>
-      <c r="J56" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" t="s">
-        <v>10</v>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M56" t="s">
         <v>10</v>
@@ -2937,8 +3618,18 @@
       <c r="Q56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56" t="s">
+        <v>10</v>
+      </c>
+      <c r="S56" t="s">
+        <v>10</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2966,14 +3657,12 @@
       <c r="I57" t="s">
         <v>12</v>
       </c>
-      <c r="J57" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" t="s">
-        <v>12</v>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L57" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M57" t="s">
         <v>12</v>
@@ -2985,30 +3674,38 @@
         <v>12</v>
       </c>
       <c r="P57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R57" t="s">
+        <v>12</v>
+      </c>
+      <c r="S57" t="s">
+        <v>10</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1</v>
       </c>
-      <c r="J58" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" t="s">
-        <v>21</v>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M58" t="s">
         <v>21</v>
       </c>
       <c r="N58" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O58" t="s">
         <v>21</v>
@@ -3017,28 +3714,36 @@
         <v>21</v>
       </c>
       <c r="Q58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="R58" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" t="s">
+        <v>12</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1</v>
       </c>
-      <c r="J59" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" t="s">
-        <v>10</v>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L59" t="s">
+        <v>14</v>
+      </c>
+      <c r="M59" t="s">
+        <v>10</v>
+      </c>
+      <c r="N59" t="s">
         <v>22</v>
       </c>
-      <c r="M59" t="s">
-        <v>12</v>
-      </c>
-      <c r="N59" t="s">
-        <v>12</v>
-      </c>
       <c r="O59" t="s">
         <v>12</v>
       </c>
@@ -3046,10 +3751,20 @@
         <v>12</v>
       </c>
       <c r="Q59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R59" t="s">
+        <v>12</v>
+      </c>
+      <c r="S59" t="s">
+        <v>10</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -3077,14 +3792,12 @@
       <c r="I60" t="s">
         <v>12</v>
       </c>
-      <c r="J60" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" t="s">
-        <v>12</v>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M60" t="s">
         <v>12</v>
@@ -3093,16 +3806,26 @@
         <v>10</v>
       </c>
       <c r="O60" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q60" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60" t="s">
+        <v>12</v>
+      </c>
+      <c r="S60" t="s">
+        <v>10</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -3130,61 +3853,77 @@
       <c r="I61" t="s">
         <v>11</v>
       </c>
-      <c r="J61" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" t="s">
-        <v>12</v>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L61" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M61" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N61" t="s">
         <v>10</v>
       </c>
       <c r="O61" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q61" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61" t="s">
+        <v>12</v>
+      </c>
+      <c r="S61" t="s">
+        <v>12</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1</v>
       </c>
-      <c r="J62" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" t="s">
-        <v>21</v>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M62" t="s">
         <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O62" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P62" t="s">
         <v>21</v>
       </c>
       <c r="Q62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R62" t="s">
+        <v>21</v>
+      </c>
+      <c r="S62" t="s">
+        <v>10</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -3212,17 +3951,25 @@
       <c r="I63" t="s">
         <v>10</v>
       </c>
-      <c r="J63" t="s">
-        <v>14</v>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L63" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63" t="s">
         <v>22</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="S63" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1</v>
       </c>
@@ -3250,32 +3997,40 @@
       <c r="I64" t="s">
         <v>12</v>
       </c>
-      <c r="J64" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" t="s">
-        <v>10</v>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L64" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" t="s">
+        <v>10</v>
+      </c>
+      <c r="N64" t="s">
         <v>22</v>
       </c>
-      <c r="M64" t="s">
-        <v>12</v>
-      </c>
-      <c r="N64" t="s">
-        <v>12</v>
-      </c>
       <c r="O64" t="s">
         <v>12</v>
       </c>
       <c r="P64" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R64" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" t="s">
+        <v>10</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -3303,14 +4058,12 @@
       <c r="I65" t="s">
         <v>11</v>
       </c>
-      <c r="J65" t="s">
-        <v>14</v>
-      </c>
-      <c r="K65" t="s">
-        <v>12</v>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L65" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M65" t="s">
         <v>12</v>
@@ -3325,10 +4078,20 @@
         <v>12</v>
       </c>
       <c r="Q65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R65" t="s">
+        <v>12</v>
+      </c>
+      <c r="S65" t="s">
+        <v>21</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -3356,14 +4119,12 @@
       <c r="I66" t="s">
         <v>10</v>
       </c>
-      <c r="J66" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" t="s">
-        <v>10</v>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="L66" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M66" t="s">
         <v>10</v>
@@ -3380,22 +4141,30 @@
       <c r="Q66" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66" t="s">
+        <v>10</v>
+      </c>
+      <c r="S66" t="s">
+        <v>10</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1</v>
       </c>
-      <c r="J67" t="s">
-        <v>14</v>
-      </c>
-      <c r="K67" t="s">
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="2">COUNTA(D67:I67)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" t="s">
         <v>22</v>
-      </c>
-      <c r="L67" t="s">
-        <v>22</v>
-      </c>
-      <c r="M67" t="s">
-        <v>21</v>
       </c>
       <c r="N67" t="s">
         <v>22</v>
@@ -3404,13 +4173,23 @@
         <v>21</v>
       </c>
       <c r="P67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q67" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <f t="shared" ref="T67:T104" si="3">COUNTA(N67:S67)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3438,18 +4217,16 @@
       <c r="I68" t="s">
         <v>12</v>
       </c>
-      <c r="J68" t="s">
-        <v>14</v>
-      </c>
-      <c r="K68" t="s">
+      <c r="J68">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L68" t="s">
+        <v>14</v>
+      </c>
+      <c r="M68" t="s">
         <v>22</v>
       </c>
-      <c r="L68" t="s">
-        <v>10</v>
-      </c>
-      <c r="M68" t="s">
-        <v>12</v>
-      </c>
       <c r="N68" t="s">
         <v>10</v>
       </c>
@@ -3457,42 +4234,60 @@
         <v>12</v>
       </c>
       <c r="P68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q68" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68" t="s">
+        <v>12</v>
+      </c>
+      <c r="S68" t="s">
+        <v>12</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
-      <c r="J69" t="s">
-        <v>14</v>
-      </c>
-      <c r="K69" t="s">
-        <v>12</v>
+      <c r="J69">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M69" t="s">
         <v>12</v>
       </c>
       <c r="N69" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O69" t="s">
         <v>12</v>
       </c>
       <c r="P69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R69" t="s">
+        <v>12</v>
+      </c>
+      <c r="S69" t="s">
+        <v>10</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1</v>
       </c>
@@ -3520,32 +4315,40 @@
       <c r="I70" t="s">
         <v>10</v>
       </c>
-      <c r="J70" t="s">
-        <v>14</v>
-      </c>
-      <c r="K70" t="s">
-        <v>10</v>
+      <c r="J70">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L70" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M70" t="s">
         <v>10</v>
       </c>
       <c r="N70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P70" t="s">
         <v>12</v>
       </c>
       <c r="Q70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R70" t="s">
+        <v>12</v>
+      </c>
+      <c r="S70" t="s">
+        <v>10</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
@@ -3573,11 +4376,19 @@
       <c r="I71" t="s">
         <v>10</v>
       </c>
-      <c r="J71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J71">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L71" t="s">
+        <v>14</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -3605,20 +4416,18 @@
       <c r="I72" t="s">
         <v>12</v>
       </c>
-      <c r="J72" t="s">
-        <v>14</v>
-      </c>
-      <c r="K72" t="s">
-        <v>12</v>
+      <c r="J72">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L72" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M72" t="s">
         <v>12</v>
       </c>
       <c r="N72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O72" t="s">
         <v>12</v>
@@ -3627,10 +4436,20 @@
         <v>12</v>
       </c>
       <c r="Q72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R72" t="s">
+        <v>12</v>
+      </c>
+      <c r="S72" t="s">
+        <v>10</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1</v>
       </c>
@@ -3658,20 +4477,18 @@
       <c r="I73" t="s">
         <v>11</v>
       </c>
-      <c r="J73" t="s">
-        <v>14</v>
-      </c>
-      <c r="K73" t="s">
-        <v>21</v>
+      <c r="J73">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L73" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M73" t="s">
         <v>21</v>
       </c>
       <c r="N73" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O73" t="s">
         <v>21</v>
@@ -3680,10 +4497,20 @@
         <v>21</v>
       </c>
       <c r="Q73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="R73" t="s">
+        <v>21</v>
+      </c>
+      <c r="S73" t="s">
+        <v>10</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1</v>
       </c>
@@ -3711,14 +4538,12 @@
       <c r="I74" t="s">
         <v>10</v>
       </c>
-      <c r="J74" t="s">
-        <v>14</v>
-      </c>
-      <c r="K74" t="s">
-        <v>10</v>
+      <c r="J74">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L74" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M74" t="s">
         <v>10</v>
@@ -3730,13 +4555,23 @@
         <v>10</v>
       </c>
       <c r="P74" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>10</v>
+      </c>
+      <c r="R74" t="s">
         <v>22</v>
       </c>
-      <c r="Q74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S74" t="s">
+        <v>10</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -3764,20 +4599,18 @@
       <c r="I75" t="s">
         <v>11</v>
       </c>
-      <c r="J75" t="s">
-        <v>14</v>
-      </c>
-      <c r="K75" t="s">
-        <v>21</v>
+      <c r="J75">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L75" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M75" t="s">
         <v>21</v>
       </c>
       <c r="N75" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O75" t="s">
         <v>21</v>
@@ -3786,27 +4619,35 @@
         <v>21</v>
       </c>
       <c r="Q75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="R75" t="s">
+        <v>21</v>
+      </c>
+      <c r="S75" t="s">
+        <v>10</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1</v>
       </c>
-      <c r="J76" t="s">
-        <v>14</v>
-      </c>
-      <c r="K76" t="s">
-        <v>10</v>
+      <c r="J76">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M76" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="N76" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O76" t="s">
         <v>21</v>
@@ -3817,8 +4658,18 @@
       <c r="Q76" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76" t="s">
+        <v>21</v>
+      </c>
+      <c r="S76" t="s">
+        <v>21</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1</v>
       </c>
@@ -3846,14 +4697,12 @@
       <c r="I77" t="s">
         <v>12</v>
       </c>
-      <c r="J77" t="s">
-        <v>14</v>
-      </c>
-      <c r="K77" t="s">
-        <v>21</v>
+      <c r="J77">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M77" t="s">
         <v>21</v>
@@ -3868,28 +4717,36 @@
         <v>21</v>
       </c>
       <c r="Q77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="R77" t="s">
+        <v>21</v>
+      </c>
+      <c r="S77" t="s">
+        <v>10</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1</v>
       </c>
-      <c r="J78" t="s">
-        <v>14</v>
-      </c>
-      <c r="K78" t="s">
-        <v>12</v>
+      <c r="J78">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L78" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" t="s">
         <v>22</v>
       </c>
-      <c r="M78" t="s">
-        <v>10</v>
-      </c>
-      <c r="N78" t="s">
-        <v>10</v>
-      </c>
       <c r="O78" t="s">
         <v>10</v>
       </c>
@@ -3899,8 +4756,18 @@
       <c r="Q78" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R78" t="s">
+        <v>10</v>
+      </c>
+      <c r="S78" t="s">
+        <v>10</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -3928,32 +4795,40 @@
       <c r="I79" t="s">
         <v>10</v>
       </c>
-      <c r="J79" t="s">
-        <v>14</v>
-      </c>
-      <c r="K79" t="s">
-        <v>21</v>
+      <c r="J79">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L79" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M79" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O79" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="P79" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="R79" t="s">
+        <v>21</v>
+      </c>
+      <c r="S79" t="s">
+        <v>10</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1</v>
       </c>
@@ -3981,40 +4856,56 @@
       <c r="I80" t="s">
         <v>13</v>
       </c>
-      <c r="J80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J80">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L80" t="s">
+        <v>14</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1</v>
       </c>
-      <c r="J81" t="s">
-        <v>14</v>
-      </c>
-      <c r="K81" t="s">
-        <v>12</v>
+      <c r="J81">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M81" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N81" t="s">
         <v>10</v>
       </c>
       <c r="O81" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P81" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R81" t="s">
+        <v>21</v>
+      </c>
+      <c r="S81" t="s">
+        <v>10</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1</v>
       </c>
@@ -4042,17 +4933,15 @@
       <c r="I82" t="s">
         <v>10</v>
       </c>
-      <c r="J82" t="s">
-        <v>14</v>
-      </c>
-      <c r="K82" t="s">
-        <v>21</v>
+      <c r="J82">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L82" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M82" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N82" t="s">
         <v>10</v>
@@ -4061,13 +4950,23 @@
         <v>12</v>
       </c>
       <c r="P82" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R82" t="s">
+        <v>12</v>
+      </c>
+      <c r="S82" t="s">
+        <v>12</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -4095,14 +4994,12 @@
       <c r="I83" t="s">
         <v>13</v>
       </c>
-      <c r="J83" t="s">
-        <v>14</v>
-      </c>
-      <c r="K83" t="s">
-        <v>12</v>
+      <c r="J83">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M83" t="s">
         <v>12</v>
@@ -4119,8 +5016,18 @@
       <c r="Q83" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R83" t="s">
+        <v>12</v>
+      </c>
+      <c r="S83" t="s">
+        <v>12</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -4148,20 +5055,18 @@
       <c r="I84" t="s">
         <v>11</v>
       </c>
-      <c r="J84" t="s">
-        <v>14</v>
-      </c>
-      <c r="K84" t="s">
-        <v>21</v>
+      <c r="J84">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M84" t="s">
         <v>21</v>
       </c>
       <c r="N84" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="O84" t="s">
         <v>21</v>
@@ -4172,8 +5077,18 @@
       <c r="Q84" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R84" t="s">
+        <v>21</v>
+      </c>
+      <c r="S84" t="s">
+        <v>21</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1</v>
       </c>
@@ -4201,20 +5116,18 @@
       <c r="I85" t="s">
         <v>10</v>
       </c>
-      <c r="J85" t="s">
-        <v>14</v>
-      </c>
-      <c r="K85" t="s">
-        <v>12</v>
+      <c r="J85">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L85" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M85" t="s">
         <v>12</v>
       </c>
       <c r="N85" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O85" t="s">
         <v>12</v>
@@ -4223,10 +5136,20 @@
         <v>12</v>
       </c>
       <c r="Q85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R85" t="s">
+        <v>12</v>
+      </c>
+      <c r="S85" t="s">
+        <v>10</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1</v>
       </c>
@@ -4251,11 +5174,19 @@
       <c r="I86" t="s">
         <v>10</v>
       </c>
-      <c r="J86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J86">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="L86" t="s">
+        <v>14</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -4283,14 +5214,12 @@
       <c r="I87" t="s">
         <v>10</v>
       </c>
-      <c r="J87" t="s">
-        <v>14</v>
-      </c>
-      <c r="K87" t="s">
-        <v>21</v>
+      <c r="J87">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L87" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M87" t="s">
         <v>21</v>
@@ -4302,13 +5231,23 @@
         <v>21</v>
       </c>
       <c r="P87" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Q87" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R87" t="s">
+        <v>21</v>
+      </c>
+      <c r="S87" t="s">
+        <v>21</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1</v>
       </c>
@@ -4336,14 +5275,12 @@
       <c r="I88" t="s">
         <v>10</v>
       </c>
-      <c r="J88" t="s">
-        <v>14</v>
-      </c>
-      <c r="K88" t="s">
-        <v>21</v>
+      <c r="J88">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L88" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M88" t="s">
         <v>21</v>
@@ -4360,8 +5297,18 @@
       <c r="Q88" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R88" t="s">
+        <v>21</v>
+      </c>
+      <c r="S88" t="s">
+        <v>21</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1</v>
       </c>
@@ -4389,20 +5336,18 @@
       <c r="I89" t="s">
         <v>10</v>
       </c>
-      <c r="J89" t="s">
-        <v>14</v>
-      </c>
-      <c r="K89" t="s">
+      <c r="J89">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L89" t="s">
+        <v>14</v>
+      </c>
+      <c r="M89" t="s">
         <v>22</v>
       </c>
-      <c r="L89" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" t="s">
-        <v>21</v>
-      </c>
       <c r="N89" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O89" t="s">
         <v>21</v>
@@ -4413,8 +5358,18 @@
       <c r="Q89" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R89" t="s">
+        <v>21</v>
+      </c>
+      <c r="S89" t="s">
+        <v>21</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -4442,23 +5397,21 @@
       <c r="I90" t="s">
         <v>13</v>
       </c>
-      <c r="J90" t="s">
-        <v>14</v>
-      </c>
-      <c r="K90" t="s">
-        <v>12</v>
+      <c r="J90">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L90" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M90" t="s">
         <v>12</v>
       </c>
       <c r="N90" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="O90" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P90" t="s">
         <v>21</v>
@@ -4466,8 +5419,18 @@
       <c r="Q90" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R90" t="s">
+        <v>21</v>
+      </c>
+      <c r="S90" t="s">
+        <v>21</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1</v>
       </c>
@@ -4495,20 +5458,18 @@
       <c r="I91" t="s">
         <v>10</v>
       </c>
-      <c r="J91" t="s">
-        <v>14</v>
-      </c>
-      <c r="K91" t="s">
-        <v>12</v>
+      <c r="J91">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L91" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M91" t="s">
         <v>12</v>
       </c>
       <c r="N91" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O91" t="s">
         <v>12</v>
@@ -4519,37 +5480,55 @@
       <c r="Q91" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R91" t="s">
+        <v>12</v>
+      </c>
+      <c r="S91" t="s">
+        <v>12</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1</v>
       </c>
-      <c r="J92" t="s">
-        <v>14</v>
-      </c>
-      <c r="K92" t="s">
-        <v>21</v>
+      <c r="J92">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M92" t="s">
         <v>21</v>
       </c>
       <c r="N92" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O92" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q92" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R92" t="s">
+        <v>10</v>
+      </c>
+      <c r="S92" t="s">
+        <v>21</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1</v>
       </c>
@@ -4577,20 +5556,18 @@
       <c r="I93" t="s">
         <v>11</v>
       </c>
-      <c r="J93" t="s">
-        <v>14</v>
-      </c>
-      <c r="K93" t="s">
-        <v>10</v>
+      <c r="J93">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L93" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O93" t="s">
         <v>12</v>
@@ -4599,21 +5576,29 @@
         <v>12</v>
       </c>
       <c r="Q93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R93" t="s">
+        <v>12</v>
+      </c>
+      <c r="S93" t="s">
+        <v>10</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1</v>
       </c>
-      <c r="J94" t="s">
-        <v>14</v>
-      </c>
-      <c r="K94" t="s">
-        <v>10</v>
+      <c r="J94">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M94" t="s">
         <v>10</v>
@@ -4622,16 +5607,26 @@
         <v>22</v>
       </c>
       <c r="O94" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q94" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R94" t="s">
+        <v>21</v>
+      </c>
+      <c r="S94" t="s">
+        <v>21</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1</v>
       </c>
@@ -4659,21 +5654,19 @@
       <c r="I95" t="s">
         <v>12</v>
       </c>
-      <c r="J95" t="s">
-        <v>14</v>
-      </c>
-      <c r="K95" t="s">
-        <v>12</v>
+      <c r="J95">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L95" t="s">
+        <v>14</v>
+      </c>
+      <c r="M95" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" t="s">
         <v>22</v>
       </c>
-      <c r="M95" t="s">
-        <v>12</v>
-      </c>
-      <c r="N95" t="s">
-        <v>12</v>
-      </c>
       <c r="O95" t="s">
         <v>12</v>
       </c>
@@ -4681,10 +5674,20 @@
         <v>12</v>
       </c>
       <c r="Q95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R95" t="s">
+        <v>12</v>
+      </c>
+      <c r="S95" t="s">
+        <v>10</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1</v>
       </c>
@@ -4712,11 +5715,19 @@
       <c r="I96" t="s">
         <v>11</v>
       </c>
-      <c r="J96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J96">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L96" t="s">
+        <v>14</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1</v>
       </c>
@@ -4744,32 +5755,40 @@
       <c r="I97" t="s">
         <v>10</v>
       </c>
-      <c r="J97" t="s">
-        <v>14</v>
-      </c>
-      <c r="K97" t="s">
-        <v>10</v>
+      <c r="J97">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L97" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O97" t="s">
         <v>12</v>
       </c>
       <c r="P97" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R97" t="s">
+        <v>10</v>
+      </c>
+      <c r="S97" t="s">
+        <v>10</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1</v>
       </c>
@@ -4797,14 +5816,12 @@
       <c r="I98" t="s">
         <v>10</v>
       </c>
-      <c r="J98" t="s">
-        <v>14</v>
-      </c>
-      <c r="K98" t="s">
-        <v>12</v>
+      <c r="J98">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M98" t="s">
         <v>12</v>
@@ -4816,13 +5833,23 @@
         <v>12</v>
       </c>
       <c r="P98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="R98" t="s">
+        <v>10</v>
+      </c>
+      <c r="S98" t="s">
+        <v>10</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -4850,32 +5877,40 @@
       <c r="I99" t="s">
         <v>10</v>
       </c>
-      <c r="J99" t="s">
-        <v>14</v>
-      </c>
-      <c r="K99" t="s">
-        <v>12</v>
+      <c r="J99">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M99" t="s">
         <v>12</v>
       </c>
       <c r="N99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O99" t="s">
         <v>12</v>
       </c>
       <c r="P99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q99" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R99" t="s">
+        <v>12</v>
+      </c>
+      <c r="S99" t="s">
+        <v>12</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1</v>
       </c>
@@ -4903,14 +5938,12 @@
       <c r="I100" t="s">
         <v>11</v>
       </c>
-      <c r="J100" t="s">
-        <v>14</v>
-      </c>
-      <c r="K100" t="s">
-        <v>21</v>
+      <c r="J100">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L100" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M100" t="s">
         <v>21</v>
@@ -4925,10 +5958,20 @@
         <v>21</v>
       </c>
       <c r="Q100" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="R100" t="s">
+        <v>21</v>
+      </c>
+      <c r="S100" t="s">
+        <v>12</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -4956,32 +5999,40 @@
       <c r="I101" t="s">
         <v>10</v>
       </c>
-      <c r="J101" t="s">
-        <v>14</v>
-      </c>
-      <c r="K101" t="s">
-        <v>12</v>
+      <c r="J101">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L101" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M101" t="s">
         <v>12</v>
       </c>
       <c r="N101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P101" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" t="s">
         <v>22</v>
       </c>
-      <c r="Q101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S101" t="s">
+        <v>10</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1</v>
       </c>
@@ -5009,28 +6060,34 @@
       <c r="I102" t="s">
         <v>10</v>
       </c>
-      <c r="J102" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J102">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L102" t="s">
+        <v>14</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1</v>
       </c>
-      <c r="J103" t="s">
-        <v>14</v>
-      </c>
-      <c r="K103" t="s">
-        <v>12</v>
+      <c r="J103">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M103" t="s">
         <v>12</v>
       </c>
       <c r="N103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O103" t="s">
         <v>12</v>
@@ -5041,8 +6098,18 @@
       <c r="Q103" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R103" t="s">
+        <v>12</v>
+      </c>
+      <c r="S103" t="s">
+        <v>12</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1</v>
       </c>
@@ -5070,17 +6137,15 @@
       <c r="I104" t="s">
         <v>12</v>
       </c>
-      <c r="J104" t="s">
-        <v>14</v>
-      </c>
-      <c r="K104" t="s">
-        <v>12</v>
+      <c r="J104">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="L104" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M104" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N104" t="s">
         <v>10</v>
@@ -5092,10 +6157,20 @@
         <v>10</v>
       </c>
       <c r="Q104" t="s">
+        <v>10</v>
+      </c>
+      <c r="R104" t="s">
+        <v>10</v>
+      </c>
+      <c r="S104" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T104">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1</v>
       </c>
@@ -5123,8 +6198,12 @@
       <c r="I105" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J105">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1</v>
       </c>
@@ -5152,8 +6231,12 @@
       <c r="I106" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J106">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1</v>
       </c>
@@ -5181,8 +6264,12 @@
       <c r="I107" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J107">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1</v>
       </c>
@@ -5210,8 +6297,12 @@
       <c r="I108" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J108">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1</v>
       </c>
@@ -5239,8 +6330,12 @@
       <c r="I109" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J109">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1</v>
       </c>
@@ -5268,8 +6363,12 @@
       <c r="I110" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J110">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -5297,8 +6396,12 @@
       <c r="I111" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J111">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1</v>
       </c>
@@ -5326,8 +6429,12 @@
       <c r="I112" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J112">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -5355,8 +6462,12 @@
       <c r="I113" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J113">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1</v>
       </c>
@@ -5384,8 +6495,12 @@
       <c r="I114" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J114">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1</v>
       </c>
@@ -5413,13 +6528,21 @@
       <c r="I115" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J115">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1</v>
       </c>
@@ -5447,18 +6570,30 @@
       <c r="I117" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J117">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1</v>
       </c>
@@ -5486,13 +6621,21 @@
       <c r="I120" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J120">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1</v>
       </c>
@@ -5520,8 +6663,12 @@
       <c r="I122" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1</v>
       </c>
@@ -5549,8 +6696,12 @@
       <c r="I123" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J123">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -5578,8 +6729,12 @@
       <c r="I124" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J124">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1</v>
       </c>
@@ -5607,8 +6762,12 @@
       <c r="I125" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J125">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1</v>
       </c>
@@ -5636,13 +6795,21 @@
       <c r="I126" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J126">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -5670,8 +6837,12 @@
       <c r="I128" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J128">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1</v>
       </c>
@@ -5699,8 +6870,12 @@
       <c r="I129" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J129">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1</v>
       </c>
@@ -5728,13 +6903,21 @@
       <c r="I130" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J130">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J131">
+        <f t="shared" ref="J131:J140" si="4">COUNTA(D131:I131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1</v>
       </c>
@@ -5762,8 +6945,12 @@
       <c r="I132" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J132">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1</v>
       </c>
@@ -5791,8 +6978,12 @@
       <c r="I133" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J133">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1</v>
       </c>
@@ -5820,8 +7011,12 @@
       <c r="I134" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J134">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1</v>
       </c>
@@ -5849,13 +7044,21 @@
       <c r="I135" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J135">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J136">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1</v>
       </c>
@@ -5883,8 +7086,12 @@
       <c r="I137" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J137">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -5912,8 +7119,12 @@
       <c r="I138" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J138">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1</v>
       </c>
@@ -5941,8 +7152,12 @@
       <c r="I139" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J139">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1</v>
       </c>
@@ -5970,8 +7185,720 @@
       <c r="I140" t="s">
         <v>10</v>
       </c>
+      <c r="J140">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J142" t="s">
+        <v>24</v>
+      </c>
+      <c r="T142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143">
+        <f>COUNTIF(B$1:B$140,$A143)</f>
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ref="C143:I148" si="5">COUNTIF(C$1:C$140,$A143)</f>
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="1">
+        <f>AVERAGE(B143:I143)</f>
+        <v>0</v>
+      </c>
+      <c r="K143" s="1"/>
+      <c r="L143" t="s">
+        <v>21</v>
+      </c>
+      <c r="M143">
+        <f>COUNTIF(M$1:M$140,$A143)</f>
+        <v>21</v>
+      </c>
+      <c r="N143">
+        <f t="shared" ref="N143:S145" si="6">COUNTIF(N$1:N$140,$A143)</f>
+        <v>8</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="T143" s="1">
+        <f>AVERAGE(M143:S143)</f>
+        <v>18.714285714285715</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ref="B144:F147" si="7">COUNTIF(B$1:B$140,$A144)</f>
+        <v>29</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="J144" s="1">
+        <f t="shared" ref="J144:J147" si="8">AVERAGE(B144:I144)</f>
+        <v>26.375</v>
+      </c>
+      <c r="K144" s="1"/>
+      <c r="L144" t="s">
+        <v>12</v>
+      </c>
+      <c r="M144">
+        <f t="shared" ref="M144:Q145" si="9">COUNTIF(M$1:M$140,$A144)</f>
+        <v>33</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="T144" s="1">
+        <f t="shared" ref="T144:T147" si="10">AVERAGE(M144:S144)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="J145" s="1">
+        <f t="shared" ref="J145" si="11">AVERAGE(B145:I145)</f>
+        <v>38.375</v>
+      </c>
+      <c r="K145" s="1"/>
+      <c r="L145" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T145" s="1">
+        <f t="shared" ref="T145" si="12">AVERAGE(M145:S145)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="J146" s="1">
+        <f t="shared" si="8"/>
+        <v>27.5</v>
+      </c>
+      <c r="K146" s="1"/>
+      <c r="L146" t="s">
+        <v>10</v>
+      </c>
+      <c r="M146">
+        <f>COUNTIF(M$1:M$140,$A146)</f>
+        <v>30</v>
+      </c>
+      <c r="N146">
+        <f>COUNTIF(N$1:N$140,$A146)</f>
+        <v>50</v>
+      </c>
+      <c r="O146">
+        <f>COUNTIF(O$1:O$140,$A146)</f>
+        <v>20</v>
+      </c>
+      <c r="P146">
+        <f>COUNTIF(P$1:P$140,$A146)</f>
+        <v>24</v>
+      </c>
+      <c r="Q146">
+        <f>COUNTIF(Q$1:Q$140,$A146)</f>
+        <v>21</v>
+      </c>
+      <c r="R146">
+        <f>COUNTIF(R$1:R$140,$A146)</f>
+        <v>16</v>
+      </c>
+      <c r="S146">
+        <f>COUNTIF(S$1:S$140,$A146)</f>
+        <v>48</v>
+      </c>
+      <c r="T146" s="1">
+        <f t="shared" si="10"/>
+        <v>29.857142857142858</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K147" s="1"/>
+      <c r="L147" t="s">
+        <v>22</v>
+      </c>
+      <c r="M147">
+        <f>COUNTIF(M$1:M$140,$A147)</f>
+        <v>5</v>
+      </c>
+      <c r="N147">
+        <f>COUNTIF(N$1:N$140,$A147)</f>
+        <v>13</v>
+      </c>
+      <c r="O147">
+        <f>COUNTIF(O$1:O$140,$A147)</f>
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <f>COUNTIF(P$1:P$140,$A147)</f>
+        <v>5</v>
+      </c>
+      <c r="Q147">
+        <f>COUNTIF(Q$1:Q$140,$A147)</f>
+        <v>1</v>
+      </c>
+      <c r="R147">
+        <f>COUNTIF(R$1:R$140,$A147)</f>
+        <v>3</v>
+      </c>
+      <c r="S147">
+        <f>COUNTIF(S$1:S$140,$A147)</f>
+        <v>6</v>
+      </c>
+      <c r="T147" s="1">
+        <f t="shared" si="10"/>
+        <v>4.7142857142857144</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>25</v>
+      </c>
+      <c r="B148">
+        <f>SUM(B143:B147)</f>
+        <v>103</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ref="C148:F148" si="13">SUM(C143:C147)</f>
+        <v>108</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="13"/>
+        <v>92</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="13"/>
+        <v>94</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="13"/>
+        <v>81</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L148" t="s">
+        <v>25</v>
+      </c>
+      <c r="M148">
+        <f>SUM(M143:M147)</f>
+        <v>89</v>
+      </c>
+      <c r="N148">
+        <f>SUM(N143:N147)</f>
+        <v>90</v>
+      </c>
+      <c r="O148">
+        <f>SUM(O143:O147)</f>
+        <v>89</v>
+      </c>
+      <c r="P148">
+        <f>SUM(P143:P147)</f>
+        <v>89</v>
+      </c>
+      <c r="Q148">
+        <f>SUM(Q143:Q147)</f>
+        <v>89</v>
+      </c>
+      <c r="R148">
+        <f>COUNTIF(R$1:R$140,$A148)</f>
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <f>COUNTIF(S$1:S$140,$A148)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A142:G144 H143:I144 J142:K144 A145:K148">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K140">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:K140">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="37" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:I2">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:I140">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="28" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="29" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:S104">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T104">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3:T104">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="21" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G146:I148 B146:F147 B143:I145">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FF4A71AD-EDA0-DA49-A626-73A552602F94}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J143:K147">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AD11C9F6-FC04-D441-A17B-6D23DC453D78}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L142:R144 S143:T144 T142:T144 L146:T148 M145:T145">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R146:S148 M146:Q147 M143:S145">
+    <cfRule type="dataBar" priority="-1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F23DEE0F-3D08-7341-8759-EF7ADC923FF7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T143:T147">
+    <cfRule type="dataBar" priority="-1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5B10241A-0D2E-E54A-B20C-55526ACD727B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:I140">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Neutral"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L145">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Strongly Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Disagree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Agree"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Strongly Agree"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FF4A71AD-EDA0-DA49-A626-73A552602F94}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G146:I148 B146:F147 B143:I145</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AD11C9F6-FC04-D441-A17B-6D23DC453D78}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J143:K147</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5B10241A-0D2E-E54A-B20C-55526ACD727B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>R146:S148 M146:Q147 M143:S145</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F23DEE0F-3D08-7341-8759-EF7ADC923FF7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>T143:T147</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>